--- a/vsc-universal.xlsx
+++ b/vsc-universal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-macos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0124E-4D5E-4658-BEC1-3AAF7C409510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{A8D067C5-9D1A-C446-86A8-FC941857F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Version</t>
   </si>
@@ -98,21 +98,9 @@
     <t>1.96.4</t>
   </si>
   <si>
-    <t>November, 2025</t>
-  </si>
-  <si>
-    <t>November, 2026</t>
-  </si>
-  <si>
-    <t>November, 2027</t>
-  </si>
-  <si>
     <t>January, 2025</t>
   </si>
   <si>
-    <t>January, 2026</t>
-  </si>
-  <si>
     <t>https://update.code.visualstudio.com/1.97.2/darwin-universal/stable</t>
   </si>
   <si>
@@ -168,6 +156,99 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.97.2.app.zip</t>
+  </si>
+  <si>
+    <t>1.95.3</t>
+  </si>
+  <si>
+    <t>1.95.2</t>
+  </si>
+  <si>
+    <t>1.95.1</t>
+  </si>
+  <si>
+    <t>1.95.0</t>
+  </si>
+  <si>
+    <t>1.98.0</t>
+  </si>
+  <si>
+    <t>1.98.1</t>
+  </si>
+  <si>
+    <t>1.98.2</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.98.2/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.98.1/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.98.0/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.95.3/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.95.2/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.95.1/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://update.code.visualstudio.com/1.95.0/darwin-universal/stable</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1RF6JlbpxoMHuQNIGNeo6Nw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1w1tqxsT248LcdRN2FZwaVQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1LxIozwIXlBqNi3ImIjEGtQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1hpvLB2xNGu6EnZNqAWXK9w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1iWtD8iv4Q9RmjuHlt7jw3A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1m7P1UVtqimNOanufNfYVVg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19uNgRRdyb_5eWM3GYqE18A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.98.2.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.98.1.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.98.0.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.95.3.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.95.2.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.91.0.app.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/vsc-universal/Visual.Studio.Code-1.95.0.app.zip</t>
+  </si>
+  <si>
+    <t>February, 2025</t>
+  </si>
+  <si>
+    <t>October, 2024</t>
+  </si>
+  <si>
+    <t>macOS Big Sur</t>
   </si>
 </sst>
 </file>
@@ -567,25 +648,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B7" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="4"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="8.7421875" style="4"/>
+    <col min="2" max="2" width="14.390625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.87890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.78515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7421875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,109 +687,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -716,53 +798,193 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
